--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_11_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_11_15.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>178187.4507680243</v>
+        <v>175312.5645672383</v>
       </c>
     </row>
     <row r="7">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81828.86921158248</v>
+        <v>81828.86921158245</v>
       </c>
       <c r="C2" t="n">
         <v>87177.11248431254</v>
       </c>
       <c r="D2" t="n">
-        <v>88162.43320227742</v>
+        <v>88162.43320227743</v>
       </c>
       <c r="E2" t="n">
-        <v>89665.27431143694</v>
+        <v>89665.27431143692</v>
       </c>
       <c r="F2" t="n">
         <v>89665.27431143694</v>
@@ -26341,7 +26341,7 @@
         <v>89665.27431143694</v>
       </c>
       <c r="L2" t="n">
-        <v>89665.27431143694</v>
+        <v>89665.27431143692</v>
       </c>
       <c r="M2" t="n">
         <v>89665.27431143694</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55206.51629369851</v>
+        <v>56141.10260490043</v>
       </c>
       <c r="C4" t="n">
-        <v>26169.79188387299</v>
+        <v>26612.81801382394</v>
       </c>
       <c r="D4" t="n">
-        <v>20653.20901911422</v>
+        <v>21002.84539770707</v>
       </c>
       <c r="E4" t="n">
-        <v>13097.69183178116</v>
+        <v>13319.42151726253</v>
       </c>
       <c r="F4" t="n">
-        <v>13097.69183178116</v>
+        <v>13319.42151726253</v>
       </c>
       <c r="G4" t="n">
-        <v>13097.69183178116</v>
+        <v>13319.42151726253</v>
       </c>
       <c r="H4" t="n">
-        <v>13097.69183178116</v>
+        <v>13319.42151726253</v>
       </c>
       <c r="I4" t="n">
-        <v>13097.69183178116</v>
+        <v>13319.42151726253</v>
       </c>
       <c r="J4" t="n">
-        <v>13097.69183178116</v>
+        <v>13319.42151726253</v>
       </c>
       <c r="K4" t="n">
-        <v>13097.69183178116</v>
+        <v>13319.42151726253</v>
       </c>
       <c r="L4" t="n">
-        <v>13097.69183178116</v>
+        <v>13319.42151726253</v>
       </c>
       <c r="M4" t="n">
-        <v>13097.69183178116</v>
+        <v>13319.42151726253</v>
       </c>
       <c r="N4" t="n">
-        <v>13097.69183178116</v>
+        <v>13319.42151726253</v>
       </c>
       <c r="O4" t="n">
-        <v>13097.69183178116</v>
+        <v>13319.42151726253</v>
       </c>
       <c r="P4" t="n">
-        <v>13097.69183178116</v>
+        <v>13319.42151726253</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29682.93355565316</v>
+        <v>-30617.5198668551</v>
       </c>
       <c r="C6" t="n">
-        <v>-158748.3398892891</v>
+        <v>-159191.3660192401</v>
       </c>
       <c r="D6" t="n">
-        <v>-4946.065991345087</v>
+        <v>-5295.702369937921</v>
       </c>
       <c r="E6" t="n">
-        <v>22174.75764912431</v>
+        <v>21953.02796364293</v>
       </c>
       <c r="F6" t="n">
-        <v>69595.47991639844</v>
+        <v>69373.75023091707</v>
       </c>
       <c r="G6" t="n">
-        <v>69595.47991639844</v>
+        <v>69373.75023091707</v>
       </c>
       <c r="H6" t="n">
-        <v>69595.47991639844</v>
+        <v>69373.75023091707</v>
       </c>
       <c r="I6" t="n">
-        <v>69595.47991639844</v>
+        <v>69373.75023091707</v>
       </c>
       <c r="J6" t="n">
-        <v>69595.47991639844</v>
+        <v>69373.75023091707</v>
       </c>
       <c r="K6" t="n">
-        <v>69595.47991639844</v>
+        <v>69373.75023091707</v>
       </c>
       <c r="L6" t="n">
-        <v>69595.47991639844</v>
+        <v>69373.75023091707</v>
       </c>
       <c r="M6" t="n">
-        <v>69595.47991639844</v>
+        <v>69373.75023091707</v>
       </c>
       <c r="N6" t="n">
-        <v>69595.47991639844</v>
+        <v>69373.75023091707</v>
       </c>
       <c r="O6" t="n">
-        <v>69595.47991639844</v>
+        <v>69373.75023091707</v>
       </c>
       <c r="P6" t="n">
-        <v>69595.47991639843</v>
+        <v>69373.75023091707</v>
       </c>
     </row>
   </sheetData>
